--- a/Week2/data1y.xlsx
+++ b/Week2/data1y.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌面\Coursera-ML-AndrewNg-Notes-master\code\ex3-neural network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌面\AI学习汇总\Week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB87D45-17A2-48DF-8E89-5FDF790C7217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BDF334-B892-4A1C-9B35-936E92BEE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,17 +353,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5000"/>
+  <dimension ref="A1:A5001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2854,7 +2863,7 @@
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
@@ -5354,7 +5363,7 @@
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1001">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
@@ -7854,7 +7863,7 @@
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1501">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
@@ -10354,7 +10363,7 @@
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2001">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2002" spans="1:1" x14ac:dyDescent="0.2">
@@ -12854,7 +12863,7 @@
     </row>
     <row r="2501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2501">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2502" spans="1:1" x14ac:dyDescent="0.2">
@@ -15354,7 +15363,7 @@
     </row>
     <row r="3001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3001">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3002" spans="1:1" x14ac:dyDescent="0.2">
@@ -17854,7 +17863,7 @@
     </row>
     <row r="3501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3501">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3502" spans="1:1" x14ac:dyDescent="0.2">
@@ -20354,7 +20363,7 @@
     </row>
     <row r="4001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4001">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4002" spans="1:1" x14ac:dyDescent="0.2">
@@ -22854,7 +22863,7 @@
     </row>
     <row r="4501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4501">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4502" spans="1:1" x14ac:dyDescent="0.2">
@@ -25349,6 +25358,11 @@
     </row>
     <row r="5000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5000">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5001">
         <v>9</v>
       </c>
     </row>
